--- a/01_Requirements/LedgerTypes/07_Capital Account ledger.xlsx
+++ b/01_Requirements/LedgerTypes/07_Capital Account ledger.xlsx
@@ -45,9 +45,6 @@
     <t xml:space="preserve">Nature of the Capital </t>
   </si>
   <si>
-    <t xml:space="preserve">Equity </t>
-  </si>
-  <si>
     <t xml:space="preserve">Preference </t>
   </si>
   <si>
@@ -91,13 +88,16 @@
   </si>
   <si>
     <t xml:space="preserve">Capital Account Ledger Creation </t>
+  </si>
+  <si>
+    <t>Equity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,11 +709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -721,15 +721,15 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -738,37 +738,37 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D5" s="2"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" ht="24.95" customHeight="1">
       <c r="D7" s="2"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" ht="24.95" customHeight="1">
       <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>4</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>5</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -776,14 +776,14 @@
       <c r="I8" s="16"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
@@ -792,17 +792,17 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>8</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -810,17 +810,17 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D13" s="2"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>9</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -828,17 +828,17 @@
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D15" s="2"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>11</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>12</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -846,17 +846,17 @@
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -864,19 +864,19 @@
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" ht="24.95" customHeight="1">
       <c r="D19" s="2"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D20" s="2"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="35"/>
@@ -885,10 +885,10 @@
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="24" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
       <c r="D24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -897,7 +897,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" ht="24.95" customHeight="1">
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
